--- a/main/ig/CodeSystem-fr-core-cs-uf-indicateur.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-uf-indicateur.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-uf-indicateur.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-uf-indicateur.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>

--- a/main/ig/CodeSystem-fr-core-cs-uf-indicateur.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-uf-indicateur.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-fr-core-cs-uf-indicateur.xlsx
+++ b/main/ig/CodeSystem-fr-core-cs-uf-indicateur.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
